--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932089.1807899927</v>
+        <v>929710.2565849883</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11263355.22093681</v>
+        <v>11263355.2209368</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801443</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>387.5328366590456</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400494</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>195.3153380960391</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693911</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6650819731286</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>233.3257147283068</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>77.06781329991956</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439055</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>32.79376842490291</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>81.46084344268542</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>215.3529398343402</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>170.8079800483189</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>145.2943693398712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>177.9333698559266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>85.60716548239262</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>131.0636721089596</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>94.80184639741307</v>
+        <v>121.800047274033</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>12.76515480631733</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>19.88691958258267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>75.12653431054498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1914.669427940026</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1914.669427940026</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1556.403729333276</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1170.615476735032</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915838</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940026</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,28 +4431,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>763.7557992120744</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877115</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133551</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V4" t="n">
-        <v>212.7293032143257</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>212.7293032143257</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143257</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835253</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288091</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898465</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>541.107849900239</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899375</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
         <v>916.3152186951659</v>
@@ -4790,7 +4790,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>838.6033255730482</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>583.9188373671614</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302008</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>246.5270825411068</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.2161050975141</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332894</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V13" t="n">
-        <v>1003.425854278005</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W13" t="n">
-        <v>714.0086842410442</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X13" t="n">
-        <v>714.0086842410442</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y13" t="n">
-        <v>493.2161050975141</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.555541309953</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.871053104066</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.109063871873</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>1440.555541309953</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>1151.138371272992</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>971.4076946508441</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>934.1161583091823</v>
+        <v>395.1403935606864</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>226.2042106327796</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>226.2042106327796</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>317.0287368244511</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>707.4273310003912</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731424</v>
+        <v>1129.437033731426</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391433</v>
+        <v>1546.846905391434</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100418</v>
+        <v>1916.376186100419</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673977</v>
+        <v>2209.051641673978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400876</v>
+        <v>2328.249876400877</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400876</v>
+        <v>2261.20417265328</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400876</v>
+        <v>2078.349338308182</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.648411423817</v>
+        <v>1858.747873331124</v>
       </c>
       <c r="U22" t="n">
-        <v>2108.648411423817</v>
+        <v>1569.672646675321</v>
       </c>
       <c r="V22" t="n">
-        <v>1853.96392321793</v>
+        <v>1314.988158469434</v>
       </c>
       <c r="W22" t="n">
-        <v>1564.546753180969</v>
+        <v>1025.570988432474</v>
       </c>
       <c r="X22" t="n">
-        <v>1336.557202282952</v>
+        <v>797.5814375344563</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.764623139422</v>
+        <v>576.7888583909262</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356204</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378162</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172275</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237297</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093767</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.8232499582197</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>792.5084336872407</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,16 +7014,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,13 +7488,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9556,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>20.46767718315036</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042521867</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>36.78470348948784</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>141.2286289967198</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>47.77628553311058</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>81.63965561623522</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.37029053760959</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.44497470121476</v>
+        <v>45.4467738245948</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>135.850318211895</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>105.8997516910996</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939881.2277827968</v>
+        <v>939881.2277827967</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978641.0828329534</v>
+        <v>978641.0828329533</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983824.5187533153</v>
+        <v>983824.5187533152</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533152</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>983824.5187533153</v>
+        <v>983824.5187533154</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,40 +26320,40 @@
         <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>430778.8960671148</v>
+        <v>430778.8960671149</v>
       </c>
       <c r="F2" t="n">
-        <v>430778.8960671149</v>
+        <v>430778.8960671151</v>
       </c>
       <c r="G2" t="n">
         <v>430778.896067115</v>
       </c>
       <c r="H2" t="n">
-        <v>442379.2856380833</v>
+        <v>442379.2856380832</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="J2" t="n">
-        <v>443930.6298295036</v>
-      </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
@@ -26433,7 +26433,7 @@
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073114</v>
+        <v>14243.58217073116</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26451,7 +26451,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599104</v>
+        <v>250042.2887599103</v>
       </c>
       <c r="D6" t="n">
         <v>250042.2887599102</v>
       </c>
       <c r="E6" t="n">
-        <v>3482.516227169079</v>
+        <v>3387.997693722355</v>
       </c>
       <c r="F6" t="n">
-        <v>328894.9780345242</v>
+        <v>328800.4595010779</v>
       </c>
       <c r="G6" t="n">
-        <v>328894.9780345244</v>
+        <v>328800.4595010778</v>
       </c>
       <c r="H6" t="n">
-        <v>327013.173643445</v>
+        <v>326971.3841535028</v>
       </c>
       <c r="I6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="J6" t="n">
-        <v>109230.313636427</v>
+        <v>109195.5757109911</v>
       </c>
       <c r="K6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="L6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082686</v>
       </c>
       <c r="M6" t="n">
-        <v>241706.4880981926</v>
+        <v>241671.7501727566</v>
       </c>
       <c r="N6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="O6" t="n">
-        <v>326761.5160337042</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="P6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426685</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.34320908266585</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139254</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>56.82230522778892</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161642</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>53.19728360828415</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>250.6844451702153</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230224</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4530526737249</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>204.7509947629275</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N12" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,10 +32081,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>178.0564992481328</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168181</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
